--- a/data/trans_orig/P41A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P41A-Clase-trans_orig.xlsx
@@ -9781,7 +9781,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
@@ -22707,7 +22707,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
@@ -35633,7 +35633,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
@@ -48559,7 +48559,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
